--- a/AltController/Translation/Strings_for_translation.xlsx
+++ b/AltController/Translation/Strings_for_translation.xlsx
@@ -20,26 +20,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="1079">
+  <si>
+    <t xml:space="preserve">String_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation</t>
+  </si>
   <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t xml:space="preserve">String_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English_UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translation</t>
+    <t xml:space="preserve">Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About_AboutTab</t>
   </si>
   <si>
     <t xml:space="preserve">About</t>
   </si>
   <si>
-    <t xml:space="preserve">About_AboutTab</t>
-  </si>
-  <si>
     <t xml:space="preserve">_About</t>
   </si>
   <si>
@@ -115,30 +115,42 @@
     <t xml:space="preserve">About Alt Controller</t>
   </si>
   <si>
+    <t xml:space="preserve">About_TranslatorsLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About_TranslatorsText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations kindly provided by:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_AbsoluteRadioButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Move pointer</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_AbsoluteRadioButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">To absolute position</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_ActionTypeLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_ActionTypeLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Action type:</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_AltLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Type key</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_AltLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alt:</t>
   </si>
   <si>
@@ -148,21 +160,21 @@
     <t xml:space="preserve">To position</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_ChangeModeLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Change mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_ChangeModeLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Change to mode:</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_ChangePageLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Change page</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_ChangePageLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Change to page:</t>
   </si>
   <si>
@@ -172,30 +184,30 @@
     <t xml:space="preserve">Control:</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_HiddenRadioButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Change pointer</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_HiddenRadioButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hide the mouse pointer</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_HoldDownKeyLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Hold key</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_HoldDownKeyLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hold down key:</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_HoldForLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Repeat key</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_HoldForLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hold each press for (s):</t>
   </si>
   <si>
@@ -205,21 +217,21 @@
     <t xml:space="preserve">Press key:</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_KeyToReleaseLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Release key</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_KeyToReleaseLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Release key:</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_KeyToToggleLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Toggle key</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_KeyToToggleLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Toggle key:</t>
   </si>
   <si>
@@ -229,21 +241,21 @@
     <t xml:space="preserve">Key to type:</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_LongerTowardsLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Repeat key directional</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_LongerTowardsLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Longer presses towards:</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_MouseButtonLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Mouse button</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_MouseButtonLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mouse button:</t>
   </si>
   <si>
@@ -349,12 +361,12 @@
     <t xml:space="preserve">Stop after (s):</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_TextToTypeLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Type text</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_TextToTypeLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Text to type:</t>
   </si>
   <si>
@@ -379,12 +391,12 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_WaitForLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit action - Wait</t>
   </si>
   <si>
-    <t xml:space="preserve">Action_WaitForLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wait for (s):</t>
   </si>
   <si>
@@ -406,21 +418,21 @@
     <t xml:space="preserve">Y:</t>
   </si>
   <si>
+    <t xml:space="preserve">CancelButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Strings</t>
   </si>
   <si>
-    <t xml:space="preserve">CancelButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">_Cancel</t>
   </si>
   <si>
+    <t xml:space="preserve">CloseButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Custom window</t>
   </si>
   <si>
-    <t xml:space="preserve">CloseButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">_Close</t>
   </si>
   <si>
@@ -454,6 +466,30 @@
     <t xml:space="preserve">Background image:</t>
   </si>
   <si>
+    <t xml:space="preserve">Custom_ButtonBorderColourLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border colour:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom_ButtonBorderThicknessLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border width (pixels):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom_ButtonFontLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom_ButtonFontSizeLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font size:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Custom_ButtonGroupBox</t>
   </si>
   <si>
@@ -472,6 +508,12 @@
     <t xml:space="preserve">Button name:</t>
   </si>
   <si>
+    <t xml:space="preserve">Custom_ButtonTextColourLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text colour:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Custom_ButtonTextLabel</t>
   </si>
   <si>
@@ -514,6 +556,12 @@
     <t xml:space="preserve">_Delete button</t>
   </si>
   <si>
+    <t xml:space="preserve">Custom_ExtendedButtonGroupBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended button properties</t>
+  </si>
+  <si>
     <t xml:space="preserve">Custom_GhostBgLabel</t>
   </si>
   <si>
@@ -568,12 +616,549 @@
     <t xml:space="preserve">Custom_WindowWidthLabel</t>
   </si>
   <si>
+    <t xml:space="preserve">E_ACTION001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing the action type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while loading window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while adding new custom button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while deleting custom button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while handling selection of custom button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting window width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting window height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while selecting background colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting window translucency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing ghost background option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button X slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button Y slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting button width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button border width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button border colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button background colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button background image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while clearing button background image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button translucency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button font size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_CUST024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing button text colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while initialising folders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while initialising application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while positioning window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while creating new profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while opening profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while saving profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} during Save As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while opening the profile editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while opening the screen region editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while opening the profile summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while loading profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while opening all custom windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} during open custom window command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while opening custom window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while opening the Log information window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PR001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while loading profile from Xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PR002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while converting profile to Xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while loading profile editor window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while applying changes and closing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while applying changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while adding new action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while editing action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while deleting action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while moving action up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while moving action down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while editing situations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while editing inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while designing custom window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while editing screen regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while refreshing the action list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while selecting an input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while selecting a control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while navigating to the next action list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while navigating to the previous action list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while selecting a reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_PROF019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing the execution mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while loading the screen region editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while selecting a region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while enabling region drawing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} after editing region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while adding a new region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while deleting the selected region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while navigating to the previous region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while navigating to the next region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting the background image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while clearing the background image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting the region background image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while clearing the region background image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting the region translucency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while renaming the selected region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing the region colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing 'Show in mode'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing 'Show in app'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing overlay mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting region X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting region Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting region width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting region height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while setting region shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing hole size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing start angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REG026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while changing sweep angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_REGCTRL001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0}: selection of multiple regions is not allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_UPGR001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error {0} while upgrading profile to the latest version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inputs_AddButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit inputs</t>
   </si>
   <si>
-    <t xml:space="preserve">Inputs_AddButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">_Add</t>
   </si>
   <si>
@@ -604,12 +1189,12 @@
     <t xml:space="preserve">Inputs_Title</t>
   </si>
   <si>
+    <t xml:space="preserve">Items_AddButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Items list</t>
   </si>
   <si>
-    <t xml:space="preserve">Items_AddButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">_Add...</t>
   </si>
   <si>
@@ -634,12 +1219,12 @@
     <t xml:space="preserve">Move up</t>
   </si>
   <si>
+    <t xml:space="preserve">Log_ClearButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Log window</t>
   </si>
   <si>
-    <t xml:space="preserve">Log_ClearButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">C_lear</t>
   </si>
   <si>
@@ -703,12 +1288,12 @@
     <t xml:space="preserve">Log information</t>
   </si>
   <si>
+    <t xml:space="preserve">Main_CurrentActionsGroupBox</t>
+  </si>
+  <si>
     <t xml:space="preserve">Main</t>
   </si>
   <si>
-    <t xml:space="preserve">Main_CurrentActionsGroupBox</t>
-  </si>
-  <si>
     <t xml:space="preserve">Applying controls for</t>
   </si>
   <si>
@@ -931,6 +1516,12 @@
     <t xml:space="preserve">Show mode and page name overlay</t>
   </si>
   <si>
+    <t xml:space="preserve">Main_ViewMenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_View</t>
+  </si>
+  <si>
     <t xml:space="preserve">Main_ViewProfileNotes</t>
   </si>
   <si>
@@ -961,21 +1552,33 @@
     <t xml:space="preserve">_Window</t>
   </si>
   <si>
+    <t xml:space="preserve">Main_WindowShowTitleBars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show _title bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_WindowShowTitleBarsToolTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show custom window title bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse_RegionLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mouse</t>
   </si>
   <si>
-    <t xml:space="preserve">Mouse_RegionLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Region:</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes_IntroLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes_IntroLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Here you can enter any notes or instructions for this profile.</t>
   </si>
   <si>
@@ -991,30 +1594,30 @@
     <t xml:space="preserve">_OK</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_ActionsTab</t>
+  </si>
+  <si>
     <t xml:space="preserve">Options - Actions</t>
   </si>
   <si>
-    <t xml:space="preserve">Options_ActionsTab</t>
-  </si>
-  <si>
     <t xml:space="preserve">_Actions</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_AltCheck</t>
+  </si>
+  <si>
     <t xml:space="preserve">Options - Hotkeys</t>
   </si>
   <si>
-    <t xml:space="preserve">Options_AltCheck</t>
-  </si>
-  <si>
     <t xml:space="preserve">A_lt</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_AutoLoadCheckbox</t>
+  </si>
+  <si>
     <t xml:space="preserve">Options - Start up</t>
   </si>
   <si>
-    <t xml:space="preserve">Options_AutoLoadCheckbox</t>
-  </si>
-  <si>
     <t xml:space="preserve">Automatically _load last-used profile</t>
   </si>
   <si>
@@ -1036,12 +1639,12 @@
     <t xml:space="preserve">Automatically stop _Press actions on Release</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_BrowseButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Options - Folders</t>
   </si>
   <si>
-    <t xml:space="preserve">Options_BrowseButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">_Browse...</t>
   </si>
   <si>
@@ -1051,12 +1654,12 @@
     <t xml:space="preserve">Choose a profiles folder</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_CircleRadioButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Options - Display</t>
   </si>
   <si>
-    <t xml:space="preserve">Options_CircleRadioButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">C_ircle</t>
   </si>
   <si>
@@ -1066,6 +1669,12 @@
     <t xml:space="preserve">Co_ntrol</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_CustomWindowTitleBarsCheckbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn on 'Sho_w title bars'</t>
+  </si>
+  <si>
     <t xml:space="preserve">Options_DisplayTab</t>
   </si>
   <si>
@@ -1102,12 +1711,12 @@
     <t xml:space="preserve">Turn on 'Show _mode/page overlay'</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_DwellTimeLabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Options - Timing</t>
   </si>
   <si>
-    <t xml:space="preserve">Options_DwellTimeLabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pointer dwell time (s):</t>
   </si>
   <si>
@@ -1219,12 +1828,12 @@
     <t xml:space="preserve">Pointer indicator style:</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_ResetButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Options</t>
   </si>
   <si>
-    <t xml:space="preserve">Options_ResetButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">R_eset</t>
   </si>
   <si>
@@ -1234,6 +1843,12 @@
     <t xml:space="preserve">Resets all options to their default values</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_RestartRequiredLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program restart required</t>
+  </si>
+  <si>
     <t xml:space="preserve">Options_ShiftCheck</t>
   </si>
   <si>
@@ -1282,18 +1897,18 @@
     <t xml:space="preserve">_Windows</t>
   </si>
   <si>
+    <t xml:space="preserve">Overlay_Title</t>
+  </si>
+  <si>
     <t xml:space="preserve">Overlay</t>
   </si>
   <si>
-    <t xml:space="preserve">Overlay_Title</t>
+    <t xml:space="preserve">Profile_ActionsGroupBox</t>
   </si>
   <si>
     <t xml:space="preserve">Edit profile</t>
   </si>
   <si>
-    <t xml:space="preserve">Profile_ActionsGroupBox</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actions to perform</t>
   </si>
   <si>
@@ -1363,6 +1978,12 @@
     <t xml:space="preserve">Parallel</t>
   </si>
   <si>
+    <t xml:space="preserve">Profile_ParallelRadioButtonToolTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform actions simultaneously</t>
+  </si>
+  <si>
     <t xml:space="preserve">Profile_PerformInLabel</t>
   </si>
   <si>
@@ -1435,13 +2056,25 @@
     <t xml:space="preserve">Series</t>
   </si>
   <si>
+    <t xml:space="preserve">Profile_SeriesRadioButtonToolTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform actions one at a time</t>
+  </si>
+  <si>
     <t xml:space="preserve">Profile_Title</t>
   </si>
   <si>
+    <t xml:space="preserve">Regions_AddRegionButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit screen regions</t>
   </si>
   <si>
-    <t xml:space="preserve">Regions_AddRegionButton</t>
+    <t xml:space="preserve">Regions_AddRegionButtonToolTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a new region</t>
   </si>
   <si>
     <t xml:space="preserve">Regions_BrowseRegionImageButton</t>
@@ -1480,6 +2113,12 @@
     <t xml:space="preserve">Regions_DeleteRegionButton</t>
   </si>
   <si>
+    <t xml:space="preserve">Regions_DeleteRegionButtonToolTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete the selected region</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regions_DrawButton</t>
   </si>
   <si>
@@ -1627,12 +2266,12 @@
     <t xml:space="preserve">Width (%):</t>
   </si>
   <si>
+    <t xml:space="preserve">Situations_AddAppButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edit situations</t>
   </si>
   <si>
-    <t xml:space="preserve">Situations_AddAppButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">Situations_AppNameLabel</t>
   </si>
   <si>
@@ -1777,6 +2416,12 @@
     <t xml:space="preserve">Can't create input - only 1 mouse allowed</t>
   </si>
   <si>
+    <t xml:space="preserve">String_All_Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(All)</t>
+  </si>
+  <si>
     <t xml:space="preserve">String_Annulus</t>
   </si>
   <si>
@@ -1801,6 +2446,12 @@
     <t xml:space="preserve">App:</t>
   </si>
   <si>
+    <t xml:space="preserve">String_Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apps</t>
+  </si>
+  <si>
     <t xml:space="preserve">String_Bottom</t>
   </si>
   <si>
@@ -1843,6 +2494,12 @@
     <t xml:space="preserve">Click</t>
   </si>
   <si>
+    <t xml:space="preserve">String_Copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright</t>
+  </si>
+  <si>
     <t xml:space="preserve">String_Custom_Button</t>
   </si>
   <si>
@@ -1960,7 +2617,7 @@
     <t xml:space="preserve">String_Image_files_filter</t>
   </si>
   <si>
-    <t xml:space="preserve">Image files (*.bmp; *jpeg; *.jpg; *.png)|*.bmp;*jpeg;*.jpg;*.png|All files (*.*)|*.*</t>
+    <t xml:space="preserve">Image files (*.bmp; *.gif; *jpeg; *.jpg; *.png)|*.bmp;*.gif;*.jpeg;*.jpg;*.png|All files (*.*)|*.*</t>
   </si>
   <si>
     <t xml:space="preserve">String_Inherits_actions</t>
@@ -2053,6 +2710,12 @@
     <t xml:space="preserve">Mode:</t>
   </si>
   <si>
+    <t xml:space="preserve">String_Modes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modes</t>
+  </si>
+  <si>
     <t xml:space="preserve">String_Mouse</t>
   </si>
   <si>
@@ -2146,6 +2809,12 @@
     <t xml:space="preserve">None</t>
   </si>
   <si>
+    <t xml:space="preserve">String_None_Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(None)</t>
+  </si>
+  <si>
     <t xml:space="preserve">String_Open</t>
   </si>
   <si>
@@ -2491,6 +3160,12 @@
     <t xml:space="preserve">Toggle mode/page overlay</t>
   </si>
   <si>
+    <t xml:space="preserve">String_Toggle_title_bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle title bars</t>
+  </si>
+  <si>
     <t xml:space="preserve">String_Top</t>
   </si>
   <si>
@@ -2575,10 +3250,10 @@
     <t xml:space="preserve">X2</t>
   </si>
   <si>
+    <t xml:space="preserve">Summary_Title</t>
+  </si>
+  <si>
     <t xml:space="preserve">Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary_Title</t>
   </si>
   <si>
     <t xml:space="preserve">Profile summary</t>
@@ -2689,16 +3364,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D530"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D117" activeCellId="0" sqref="A117:D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="38.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.5"/>
   </cols>
   <sheetData>
@@ -2720,142 +3396,142 @@
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="0" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2863,362 +3539,362 @@
       <c r="A15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="D29" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="0" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="0" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="0" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="0" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="0" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="0" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="0" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="0" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="0" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="0" t="s">
         <v>101</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="0" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="0" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="0" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3226,54 +3902,54 @@
       <c r="A48" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="C48" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="0" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>114</v>
       </c>
+      <c r="D50" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>116</v>
+        <v>39</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3281,43 +3957,43 @@
       <c r="A53" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="C53" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="D55" s="0" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="0" t="s">
         <v>126</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3325,549 +4001,549 @@
       <c r="A57" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="0" t="s">
         <v>138</v>
       </c>
       <c r="C61" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="0" t="s">
         <v>140</v>
       </c>
       <c r="C62" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="0" t="s">
         <v>142</v>
       </c>
       <c r="C63" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="0" t="s">
         <v>144</v>
       </c>
       <c r="C64" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="0" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="0" t="s">
         <v>146</v>
       </c>
       <c r="C65" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C66" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="0" t="s">
         <v>150</v>
       </c>
       <c r="C67" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="0" t="s">
         <v>152</v>
       </c>
       <c r="C68" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="0" t="s">
         <v>154</v>
       </c>
       <c r="C69" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="0" t="s">
         <v>156</v>
       </c>
       <c r="C70" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="0" t="s">
         <v>158</v>
       </c>
       <c r="C71" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="0" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" s="0" t="s">
         <v>160</v>
       </c>
       <c r="C72" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="0" t="s">
         <v>162</v>
       </c>
       <c r="C73" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C74" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="0" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" s="0" t="s">
         <v>166</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="0" t="s">
         <v>168</v>
       </c>
       <c r="C76" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="0" t="s">
         <v>170</v>
       </c>
       <c r="C77" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="0" t="s">
         <v>172</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>153</v>
+        <v>136</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>175</v>
+        <v>136</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>147</v>
+        <v>136</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>178</v>
+        <v>136</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>180</v>
+        <v>136</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>155</v>
+        <v>136</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>184</v>
+        <v>136</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>186</v>
+        <v>136</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>188</v>
+        <v>136</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>190</v>
+        <v>136</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>192</v>
+        <v>136</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" s="0" t="s">
         <v>193</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>182</v>
+        <v>136</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B91" s="0" t="s">
         <v>195</v>
       </c>
       <c r="C91" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" s="0" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B92" s="0" t="s">
         <v>197</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>188</v>
+        <v>136</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" s="0" t="s">
         <v>198</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="D93" s="0" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B96" s="0" t="s">
         <v>205</v>
       </c>
       <c r="C96" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" s="0" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B97" s="0" t="s">
         <v>207</v>
       </c>
       <c r="C97" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="0" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B98" s="0" t="s">
         <v>209</v>
       </c>
       <c r="C98" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="0" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B99" s="0" t="s">
         <v>211</v>
       </c>
       <c r="C99" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="0" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B100" s="0" t="s">
         <v>213</v>
       </c>
       <c r="C100" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" s="0" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101" s="0" t="s">
         <v>215</v>
       </c>
       <c r="C101" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" s="0" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="0" t="s">
         <v>217</v>
       </c>
       <c r="C102" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="0" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103" s="0" t="s">
         <v>219</v>
       </c>
       <c r="C103" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="0" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" s="0" t="s">
         <v>221</v>
       </c>
       <c r="C104" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="0" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B105" s="0" t="s">
         <v>223</v>
       </c>
       <c r="C105" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="0" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B106" s="0" t="s">
         <v>225</v>
       </c>
       <c r="C106" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D106" s="0" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3875,472 +4551,472 @@
       <c r="A107" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B108" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="0" t="s">
         <v>230</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B109" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D109" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B110" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D110" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B111" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B112" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D112" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B113" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D113" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B114" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D114" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D115" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B116" s="0" t="s">
         <v>245</v>
       </c>
       <c r="C116" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D116" s="0" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B117" s="0" t="s">
         <v>247</v>
       </c>
       <c r="C117" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D117" s="0" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B118" s="0" t="s">
         <v>249</v>
       </c>
       <c r="C118" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" s="0" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B119" s="0" t="s">
         <v>251</v>
       </c>
       <c r="C119" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" s="0" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B120" s="0" t="s">
         <v>253</v>
       </c>
       <c r="C120" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120" s="0" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B121" s="0" t="s">
         <v>255</v>
       </c>
       <c r="C121" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D121" s="0" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B122" s="0" t="s">
         <v>257</v>
       </c>
       <c r="C122" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D122" s="0" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B123" s="0" t="s">
         <v>259</v>
       </c>
       <c r="C123" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D123" s="0" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B124" s="0" t="s">
         <v>261</v>
       </c>
       <c r="C124" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B125" s="0" t="s">
         <v>263</v>
       </c>
       <c r="C125" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D125" s="0" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B126" s="0" t="s">
         <v>265</v>
       </c>
       <c r="C126" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D126" s="0" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B127" s="0" t="s">
         <v>267</v>
       </c>
       <c r="C127" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D127" s="0" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B128" s="0" t="s">
         <v>269</v>
       </c>
       <c r="C128" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D128" s="0" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B129" s="0" t="s">
         <v>271</v>
       </c>
       <c r="C129" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D129" s="0" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B130" s="0" t="s">
         <v>273</v>
       </c>
       <c r="C130" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D130" s="0" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B131" s="0" t="s">
         <v>275</v>
       </c>
       <c r="C131" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D131" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B132" s="0" t="s">
         <v>277</v>
       </c>
       <c r="C132" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" s="0" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B133" s="0" t="s">
         <v>279</v>
       </c>
       <c r="C133" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D133" s="0" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B134" s="0" t="s">
         <v>281</v>
       </c>
       <c r="C134" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D134" s="0" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B135" s="0" t="s">
         <v>283</v>
       </c>
       <c r="C135" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135" s="0" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B136" s="0" t="s">
         <v>285</v>
       </c>
       <c r="C136" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D136" s="0" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B137" s="0" t="s">
         <v>287</v>
       </c>
       <c r="C137" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D137" s="0" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B138" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C138" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D138" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B139" s="0" t="s">
         <v>291</v>
       </c>
       <c r="C139" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D139" s="0" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B140" s="0" t="s">
         <v>293</v>
       </c>
       <c r="C140" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D140" s="0" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B141" s="0" t="s">
         <v>295</v>
       </c>
       <c r="C141" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D141" s="0" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B142" s="0" t="s">
         <v>297</v>
       </c>
       <c r="C142" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D142" s="0" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B143" s="0" t="s">
         <v>299</v>
       </c>
       <c r="C143" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D143" s="0" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B144" s="0" t="s">
         <v>301</v>
       </c>
       <c r="C144" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D144" s="0" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B145" s="0" t="s">
         <v>303</v>
       </c>
       <c r="C145" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D145" s="0" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B146" s="0" t="s">
         <v>305</v>
       </c>
       <c r="C146" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D146" s="0" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B147" s="0" t="s">
         <v>307</v>
       </c>
       <c r="C147" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D147" s="0" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B148" s="0" t="s">
         <v>309</v>
       </c>
       <c r="C148" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D148" s="0" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B149" s="0" t="s">
         <v>311</v>
       </c>
       <c r="C149" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D149" s="0" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4348,1187 +5024,1187 @@
       <c r="A150" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="C150" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D150" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D151" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>320</v>
+        <v>199</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>322</v>
+        <v>199</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>325</v>
+        <v>199</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>328</v>
+        <v>199</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>331</v>
+        <v>199</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>333</v>
+        <v>199</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>335</v>
+        <v>199</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>337</v>
+        <v>199</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>340</v>
+        <v>199</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>342</v>
+        <v>199</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>345</v>
+        <v>199</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>347</v>
+        <v>199</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>349</v>
+        <v>199</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>351</v>
+        <v>199</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>353</v>
+        <v>199</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>355</v>
+        <v>199</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>357</v>
+        <v>199</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>359</v>
+        <v>199</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>362</v>
+        <v>199</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>364</v>
+        <v>199</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>366</v>
+        <v>199</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>368</v>
+        <v>199</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>370</v>
+        <v>199</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>372</v>
+        <v>199</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>374</v>
+        <v>199</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>376</v>
+        <v>199</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>378</v>
+        <v>199</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>380</v>
+        <v>199</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>382</v>
+        <v>199</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>384</v>
+        <v>199</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>386</v>
+        <v>378</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>388</v>
+        <v>378</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>390</v>
+        <v>378</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>392</v>
+        <v>378</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>394</v>
+        <v>378</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>396</v>
+        <v>378</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>398</v>
+        <v>390</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>401</v>
+        <v>390</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>403</v>
+        <v>390</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>405</v>
+        <v>390</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>407</v>
+        <v>390</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>409</v>
+        <v>400</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>411</v>
+        <v>400</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>413</v>
+        <v>400</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>415</v>
+        <v>400</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>417</v>
+        <v>400</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>419</v>
+        <v>400</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>420</v>
+        <v>400</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>424</v>
+        <v>400</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>426</v>
+        <v>400</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>428</v>
+        <v>400</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>430</v>
+        <v>400</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B204" s="0" t="s">
-        <v>431</v>
-      </c>
       <c r="C204" s="0" t="s">
-        <v>432</v>
+        <v>423</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>434</v>
+        <v>423</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>436</v>
+        <v>423</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>438</v>
+        <v>423</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>440</v>
+        <v>423</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>442</v>
+        <v>423</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>444</v>
+        <v>423</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>446</v>
+        <v>423</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>448</v>
+        <v>423</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>450</v>
+        <v>423</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>452</v>
+        <v>423</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>456</v>
+        <v>423</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>458</v>
+        <v>423</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>460</v>
+        <v>423</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>462</v>
+        <v>423</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>464</v>
+        <v>423</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>466</v>
+        <v>423</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>468</v>
+        <v>423</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>470</v>
+        <v>423</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>196</v>
+        <v>423</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>137</v>
+        <v>423</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>476</v>
+        <v>423</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>478</v>
+        <v>423</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="B229" s="0" t="s">
-        <v>479</v>
-      </c>
       <c r="C229" s="0" t="s">
-        <v>480</v>
+        <v>423</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>482</v>
+        <v>423</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>484</v>
+        <v>423</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>188</v>
+        <v>423</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>487</v>
+        <v>423</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>489</v>
+        <v>423</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>491</v>
+        <v>423</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>493</v>
+        <v>423</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>495</v>
+        <v>423</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>497</v>
+        <v>423</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>499</v>
+        <v>423</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>501</v>
+        <v>423</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>503</v>
+        <v>423</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>505</v>
+        <v>423</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>507</v>
+        <v>423</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>509</v>
+        <v>423</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>511</v>
+        <v>423</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>513</v>
+        <v>423</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>515</v>
+        <v>423</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>517</v>
+        <v>423</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>519</v>
+        <v>423</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>521</v>
+        <v>515</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>523</v>
+        <v>518</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>525</v>
+        <v>518</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>527</v>
+        <v>133</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>472</v>
+        <v>525</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B255" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="D255" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B256" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C256" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="D256" s="0" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B257" s="0" t="s">
         <v>533</v>
       </c>
       <c r="C257" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D257" s="0" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5536,1771 +6212,3003 @@
       <c r="A258" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="C258" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D258" s="0" t="s">
         <v>536</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B259" s="0" t="s">
         <v>537</v>
       </c>
       <c r="C259" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="D259" s="0" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B260" s="0" t="s">
         <v>539</v>
       </c>
       <c r="C260" s="0" t="s">
         <v>540</v>
       </c>
+      <c r="D260" s="0" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>542</v>
+        <v>540</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>546</v>
+        <v>528</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>548</v>
+        <v>531</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>188</v>
+        <v>545</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>551</v>
+        <v>531</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>553</v>
+        <v>531</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>555</v>
+        <v>531</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>557</v>
+        <v>531</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>559</v>
+        <v>531</v>
+      </c>
+      <c r="D270" s="0" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B271" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>563</v>
+        <v>528</v>
+      </c>
+      <c r="D272" s="0" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>565</v>
+        <v>528</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>535</v>
+        <v>540</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>568</v>
+        <v>540</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>570</v>
+        <v>525</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>572</v>
+        <v>528</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>574</v>
+        <v>528</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>576</v>
+        <v>564</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>578</v>
+        <v>545</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>580</v>
+        <v>545</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>582</v>
+        <v>545</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>584</v>
+        <v>545</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>586</v>
+        <v>545</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>588</v>
+        <v>545</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>590</v>
+        <v>545</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>592</v>
+        <v>545</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>594</v>
+        <v>545</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>596</v>
+        <v>545</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>598</v>
+        <v>603</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>602</v>
+        <v>531</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>604</v>
+        <v>528</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>606</v>
+        <v>531</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>608</v>
+        <v>564</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>610</v>
+        <v>603</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>612</v>
+        <v>564</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>614</v>
+        <v>525</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>616</v>
+        <v>525</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>618</v>
+        <v>528</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>622</v>
+        <v>628</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B304" s="0" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B305" s="0" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>628</v>
       </c>
+      <c r="D305" s="0" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>632</v>
+        <v>628</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>634</v>
+        <v>628</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>636</v>
+        <v>628</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B310" s="0" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>638</v>
+        <v>628</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>640</v>
+        <v>628</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B312" s="0" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>642</v>
+        <v>628</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B313" s="0" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>644</v>
+        <v>628</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>646</v>
+        <v>628</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>648</v>
+        <v>628</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>650</v>
+        <v>628</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B317" s="0" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>652</v>
+        <v>628</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B318" s="0" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>654</v>
+        <v>628</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>656</v>
+        <v>628</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B320" s="0" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>658</v>
+        <v>628</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>660</v>
+        <v>628</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>662</v>
+        <v>628</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>664</v>
+        <v>628</v>
+      </c>
+      <c r="D323" s="0" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>666</v>
+        <v>628</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B325" s="0" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>668</v>
+        <v>628</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>670</v>
+        <v>628</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>672</v>
+        <v>628</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B328" s="0" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>674</v>
+        <v>628</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>676</v>
+        <v>682</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>313</v>
+        <v>682</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B333" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="C333" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="C333" s="0" t="s">
-        <v>683</v>
+      <c r="D333" s="0" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B334" s="0" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>685</v>
+        <v>682</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B335" s="0" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>687</v>
+        <v>682</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>689</v>
+        <v>682</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>691</v>
+        <v>682</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>693</v>
+        <v>682</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>695</v>
+        <v>682</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>697</v>
+        <v>682</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>699</v>
+        <v>682</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>701</v>
+        <v>682</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>703</v>
+        <v>682</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>705</v>
+        <v>682</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B345" s="0" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>707</v>
+        <v>682</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>709</v>
+        <v>682</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>711</v>
+        <v>682</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>713</v>
+        <v>682</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>715</v>
+        <v>682</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>717</v>
+        <v>682</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>719</v>
+        <v>682</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B352" s="0" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>721</v>
+        <v>682</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>723</v>
+        <v>682</v>
+      </c>
+      <c r="D353" s="0" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>725</v>
+        <v>682</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>727</v>
+        <v>682</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>729</v>
+        <v>682</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>731</v>
+        <v>682</v>
+      </c>
+      <c r="D357" s="0" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>733</v>
+        <v>682</v>
+      </c>
+      <c r="D358" s="0" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B359" s="0" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>735</v>
+        <v>682</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>737</v>
+        <v>682</v>
+      </c>
+      <c r="D360" s="0" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>739</v>
+        <v>682</v>
+      </c>
+      <c r="D361" s="0" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>741</v>
+        <v>682</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>743</v>
+        <v>682</v>
+      </c>
+      <c r="D363" s="0" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>745</v>
+        <v>749</v>
+      </c>
+      <c r="D364" s="0" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B366" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>749</v>
       </c>
+      <c r="D366" s="0" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>751</v>
+        <v>749</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B368" s="0" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>753</v>
+        <v>749</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B369" s="0" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>755</v>
+        <v>749</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>757</v>
+        <v>749</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>761</v>
+        <v>749</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>763</v>
+        <v>749</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>765</v>
+        <v>749</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B375" s="0" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B376" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>769</v>
+        <v>749</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B377" s="0" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>771</v>
+        <v>749</v>
+      </c>
+      <c r="D377" s="0" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B378" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>773</v>
+        <v>749</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B379" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>775</v>
+        <v>749</v>
+      </c>
+      <c r="D379" s="0" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>777</v>
+        <v>749</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B381" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>779</v>
+        <v>133</v>
+      </c>
+      <c r="D381" s="0" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>781</v>
+        <v>133</v>
+      </c>
+      <c r="D382" s="0" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>783</v>
+        <v>133</v>
+      </c>
+      <c r="D383" s="0" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>785</v>
+        <v>133</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>787</v>
+        <v>133</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>789</v>
+        <v>133</v>
+      </c>
+      <c r="D386" s="0" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>791</v>
+        <v>133</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>793</v>
+        <v>133</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B389" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>795</v>
+        <v>133</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B390" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>797</v>
+        <v>133</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B391" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>799</v>
+        <v>133</v>
+      </c>
+      <c r="D391" s="0" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>801</v>
+        <v>133</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B393" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>803</v>
+        <v>133</v>
+      </c>
+      <c r="D393" s="0" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>805</v>
+        <v>133</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B395" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>41</v>
+        <v>133</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>808</v>
+        <v>133</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>810</v>
+        <v>133</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B398" s="0" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>812</v>
+        <v>133</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>814</v>
+        <v>133</v>
+      </c>
+      <c r="D399" s="0" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B400" s="0" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>816</v>
+        <v>133</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>818</v>
+        <v>133</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>820</v>
+        <v>133</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>822</v>
+        <v>133</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>824</v>
+        <v>133</v>
+      </c>
+      <c r="D404" s="0" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>826</v>
+        <v>133</v>
+      </c>
+      <c r="D405" s="0" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B406" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>828</v>
+        <v>133</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>830</v>
+        <v>133</v>
+      </c>
+      <c r="D407" s="0" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>832</v>
+        <v>133</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>834</v>
+        <v>133</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>836</v>
+        <v>133</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>838</v>
+        <v>133</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>840</v>
+        <v>133</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>842</v>
+        <v>133</v>
+      </c>
+      <c r="D413" s="0" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>844</v>
+        <v>133</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>846</v>
+        <v>133</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>848</v>
+        <v>133</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>850</v>
+        <v>133</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>853</v>
+        <v>133</v>
+      </c>
+      <c r="D418" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D419" s="0" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D433" s="0" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D434" s="0" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D435" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D438" s="0" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D440" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D443" s="0" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D448" s="0" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D449" s="0" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D450" s="0" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D451" s="0" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D452" s="0" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D453" s="0" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D454" s="0" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D455" s="0" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="C456" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D456" s="0" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D457" s="0" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="C458" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D458" s="0" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D459" s="0" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D460" s="0" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="C461" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D461" s="0" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="C462" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D462" s="0" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D463" s="0" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D464" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D465" s="0" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D466" s="0" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D467" s="0" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D468" s="0" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D469" s="0" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D471" s="0" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D472" s="0" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D473" s="0" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D475" s="0" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D476" s="0" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D477" s="0" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D478" s="0" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D479" s="0" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D480" s="0" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D481" s="0" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D482" s="0" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D483" s="0" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D484" s="0" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D485" s="0" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D486" s="0" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D487" s="0" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D488" s="0" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D489" s="0" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D490" s="0" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="C491" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D491" s="0" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C492" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D492" s="0" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D493" s="0" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D494" s="0" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C495" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D495" s="0" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D496" s="0" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C497" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D497" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C498" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D498" s="0" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D499" s="0" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C500" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D500" s="0" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D501" s="0" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C502" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D502" s="0" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C503" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D503" s="0" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D504" s="0" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D505" s="0" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C506" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D506" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D507" s="0" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D508" s="0" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D509" s="0" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C510" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D510" s="0" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D511" s="0" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D512" s="0" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C513" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D513" s="0" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C514" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D514" s="0" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D515" s="0" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D517" s="0" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D518" s="0" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D519" s="0" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C520" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D520" s="0" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D521" s="0" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C522" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D522" s="0" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D523" s="0" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D524" s="0" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C525" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D525" s="0" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D526" s="0" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D527" s="0" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C528" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D528" s="0" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C529" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D529" s="0" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C530" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D530" s="0" t="s">
+        <v>1078</v>
       </c>
     </row>
   </sheetData>

--- a/AltController/Translation/Strings_for_translation.xlsx
+++ b/AltController/Translation/Strings_for_translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1085">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -2359,6 +2359,18 @@
     <t xml:space="preserve">Refresh the list of running programs</t>
   </si>
   <si>
+    <t xml:space="preserve">Situations_SnoozeLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snooze profile when using this app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situations_SnoozeToolTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't perform any actions while this app is active</t>
+  </si>
+  <si>
     <t xml:space="preserve">Situations_Title</t>
   </si>
   <si>
@@ -3077,6 +3089,12 @@
   </si>
   <si>
     <t xml:space="preserve">Situation Changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_snooze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snooze</t>
   </si>
   <si>
     <t xml:space="preserve">String_Standard_pointer</t>
@@ -3364,13 +3382,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D530"/>
+  <dimension ref="A1:D533"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D117" activeCellId="0" sqref="A117:D117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A176" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D503" activeCellId="0" sqref="A503:D503"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.75"/>
@@ -7558,29 +7576,29 @@
         <v>749</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>749</v>
+        <v>780</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>133</v>
+        <v>749</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>133</v>
+        <v>749</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8218,29 +8236,29 @@
         <v>133</v>
       </c>
       <c r="D440" s="0" t="s">
-        <v>515</v>
+        <v>899</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C441" s="0" t="s">
         <v>133</v>
       </c>
       <c r="D441" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C442" s="0" t="s">
         <v>133</v>
       </c>
       <c r="D442" s="0" t="s">
-        <v>902</v>
+        <v>515</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8944,40 +8962,40 @@
         <v>133</v>
       </c>
       <c r="D506" s="0" t="s">
-        <v>45</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C507" s="0" t="s">
         <v>133</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C508" s="0" t="s">
         <v>133</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C509" s="0" t="s">
         <v>133</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>1035</v>
+        <v>45</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9205,10 +9223,43 @@
         <v>1076</v>
       </c>
       <c r="C530" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D530" s="0" t="s">
         <v>1077</v>
       </c>
-      <c r="D530" s="0" t="s">
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="0" t="s">
         <v>1078</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D531" s="0" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D532" s="0" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C533" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D533" s="0" t="s">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>

--- a/AltController/Translation/Strings_for_translation.xlsx
+++ b/AltController/Translation/Strings_for_translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1097">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -3275,6 +3275,42 @@
   </si>
   <si>
     <t xml:space="preserve">Profile summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_TimeToMaxLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to reach max (s):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action_TimeToMinLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to auto cancel (s):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_to_auto_cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to auto cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_to_reach_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to reach max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_CompatibilityLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided for compatibility with previous versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_Additional_options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional options</t>
   </si>
 </sst>
 </file>
@@ -3382,13 +3418,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D533"/>
+  <dimension ref="A1:D539"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A176" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D503" activeCellId="0" sqref="A503:D503"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A508" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A539" activeCellId="0" sqref="A539"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.75"/>
@@ -9262,6 +9298,72 @@
         <v>1084</v>
       </c>
     </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D534" s="0" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C535" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D535" s="0" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D536" s="0" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C537" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D537" s="0" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C538" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D538" s="0" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C539" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D539" s="0" t="s">
+        <v>1096</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/AltController/Translation/Strings_for_translation.xlsx
+++ b/AltController/Translation/Strings_for_translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1098">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -523,7 +523,7 @@
     <t xml:space="preserve">Custom_ButtonTranslucencyLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Translucency:</t>
+    <t xml:space="preserve">Translucency (%):</t>
   </si>
   <si>
     <t xml:space="preserve">Custom_ButtonWidthLabel</t>
@@ -1828,6 +1828,12 @@
     <t xml:space="preserve">Pointer indicator style:</t>
   </si>
   <si>
+    <t xml:space="preserve">Options_DefaultRegionTranslucencyLabel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default region translucency (%): </t>
+  </si>
+  <si>
     <t xml:space="preserve">Options_ResetButton</t>
   </si>
   <si>
@@ -2255,9 +2261,6 @@
   </si>
   <si>
     <t xml:space="preserve">Regions_TranslucencyLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image translucency:</t>
   </si>
   <si>
     <t xml:space="preserve">Regions_WidthLabel</t>
@@ -3418,13 +3421,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D539"/>
+  <dimension ref="A1:D540"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A508" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A539" activeCellId="0" sqref="A539"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D101" activeCellId="0" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.75"/>
@@ -6619,18 +6622,18 @@
         <v>602</v>
       </c>
       <c r="C290" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="D290" s="0" t="s">
         <v>603</v>
-      </c>
-      <c r="D290" s="0" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="C291" s="0" t="s">
         <v>605</v>
-      </c>
-      <c r="C291" s="0" t="s">
-        <v>603</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>606</v>
@@ -6641,7 +6644,7 @@
         <v>607</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>608</v>
@@ -6652,7 +6655,7 @@
         <v>609</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>610</v>
@@ -6663,7 +6666,7 @@
         <v>611</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>612</v>
@@ -6674,7 +6677,7 @@
         <v>613</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>614</v>
@@ -6685,7 +6688,7 @@
         <v>615</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>616</v>
@@ -6696,7 +6699,7 @@
         <v>617</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>564</v>
+        <v>605</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>618</v>
@@ -6707,7 +6710,7 @@
         <v>619</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>525</v>
+        <v>564</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>620</v>
@@ -6729,7 +6732,7 @@
         <v>623</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>624</v>
@@ -6740,7 +6743,7 @@
         <v>625</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>626</v>
+        <v>528</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>626</v>
@@ -6754,15 +6757,15 @@
         <v>628</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="C303" s="0" t="s">
         <v>630</v>
-      </c>
-      <c r="C303" s="0" t="s">
-        <v>628</v>
       </c>
       <c r="D303" s="0" t="s">
         <v>631</v>
@@ -6773,7 +6776,7 @@
         <v>632</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>633</v>
@@ -6784,7 +6787,7 @@
         <v>634</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>635</v>
@@ -6795,7 +6798,7 @@
         <v>636</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>637</v>
@@ -6806,7 +6809,7 @@
         <v>638</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D307" s="0" t="s">
         <v>639</v>
@@ -6817,7 +6820,7 @@
         <v>640</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>641</v>
@@ -6828,7 +6831,7 @@
         <v>642</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D309" s="0" t="s">
         <v>643</v>
@@ -6839,7 +6842,7 @@
         <v>644</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>645</v>
@@ -6850,7 +6853,7 @@
         <v>646</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>647</v>
@@ -6861,7 +6864,7 @@
         <v>648</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>649</v>
@@ -6872,7 +6875,7 @@
         <v>650</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>651</v>
@@ -6883,7 +6886,7 @@
         <v>652</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>653</v>
@@ -6894,7 +6897,7 @@
         <v>654</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>655</v>
@@ -6905,7 +6908,7 @@
         <v>656</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>657</v>
@@ -6916,7 +6919,7 @@
         <v>658</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D317" s="0" t="s">
         <v>659</v>
@@ -6927,7 +6930,7 @@
         <v>660</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>661</v>
@@ -6938,7 +6941,7 @@
         <v>662</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D319" s="0" t="s">
         <v>663</v>
@@ -6949,7 +6952,7 @@
         <v>664</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>665</v>
@@ -6960,7 +6963,7 @@
         <v>666</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D321" s="0" t="s">
         <v>667</v>
@@ -6971,7 +6974,7 @@
         <v>668</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D322" s="0" t="s">
         <v>669</v>
@@ -6982,7 +6985,7 @@
         <v>670</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>671</v>
@@ -6993,7 +6996,7 @@
         <v>672</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D324" s="0" t="s">
         <v>673</v>
@@ -7004,7 +7007,7 @@
         <v>674</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>675</v>
@@ -7015,7 +7018,7 @@
         <v>676</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D326" s="0" t="s">
         <v>677</v>
@@ -7026,7 +7029,7 @@
         <v>678</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D327" s="0" t="s">
         <v>679</v>
@@ -7037,21 +7040,21 @@
         <v>680</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>682</v>
+        <v>630</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>391</v>
+        <v>630</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7059,10 +7062,10 @@
         <v>683</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>684</v>
+        <v>391</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,21 +7073,21 @@
         <v>685</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>141</v>
+        <v>686</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>687</v>
+        <v>141</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,7 +7095,7 @@
         <v>688</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D333" s="0" t="s">
         <v>689</v>
@@ -7103,7 +7106,7 @@
         <v>690</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D334" s="0" t="s">
         <v>691</v>
@@ -7114,7 +7117,7 @@
         <v>692</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D335" s="0" t="s">
         <v>693</v>
@@ -7125,7 +7128,7 @@
         <v>694</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D336" s="0" t="s">
         <v>695</v>
@@ -7136,21 +7139,21 @@
         <v>696</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>383</v>
+        <v>697</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>698</v>
+        <v>383</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,7 +7161,7 @@
         <v>699</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D339" s="0" t="s">
         <v>700</v>
@@ -7169,7 +7172,7 @@
         <v>701</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D340" s="0" t="s">
         <v>702</v>
@@ -7180,7 +7183,7 @@
         <v>703</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>704</v>
@@ -7191,7 +7194,7 @@
         <v>705</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>706</v>
@@ -7202,7 +7205,7 @@
         <v>707</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>708</v>
@@ -7213,7 +7216,7 @@
         <v>709</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D344" s="0" t="s">
         <v>710</v>
@@ -7224,7 +7227,7 @@
         <v>711</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D345" s="0" t="s">
         <v>712</v>
@@ -7235,7 +7238,7 @@
         <v>713</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>714</v>
@@ -7246,7 +7249,7 @@
         <v>715</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D347" s="0" t="s">
         <v>716</v>
@@ -7257,7 +7260,7 @@
         <v>717</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D348" s="0" t="s">
         <v>718</v>
@@ -7268,7 +7271,7 @@
         <v>719</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D349" s="0" t="s">
         <v>720</v>
@@ -7279,7 +7282,7 @@
         <v>721</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D350" s="0" t="s">
         <v>722</v>
@@ -7290,7 +7293,7 @@
         <v>723</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>724</v>
@@ -7301,7 +7304,7 @@
         <v>725</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D352" s="0" t="s">
         <v>726</v>
@@ -7312,7 +7315,7 @@
         <v>727</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D353" s="0" t="s">
         <v>728</v>
@@ -7323,7 +7326,7 @@
         <v>729</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D354" s="0" t="s">
         <v>730</v>
@@ -7334,7 +7337,7 @@
         <v>731</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>732</v>
@@ -7345,7 +7348,7 @@
         <v>733</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>734</v>
@@ -7356,7 +7359,7 @@
         <v>735</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D357" s="0" t="s">
         <v>736</v>
@@ -7367,7 +7370,7 @@
         <v>737</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D358" s="0" t="s">
         <v>738</v>
@@ -7378,7 +7381,7 @@
         <v>739</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>740</v>
@@ -7389,21 +7392,21 @@
         <v>741</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>682</v>
+        <v>742</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>743</v>
+        <v>684</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,7 +7414,7 @@
         <v>744</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D362" s="0" t="s">
         <v>745</v>
@@ -7422,98 +7425,98 @@
         <v>746</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>747</v>
+        <v>167</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="D364" s="0" t="s">
         <v>748</v>
-      </c>
-      <c r="C364" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D364" s="0" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="C365" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="C365" s="0" t="s">
-        <v>749</v>
-      </c>
       <c r="D365" s="0" t="s">
-        <v>751</v>
+        <v>379</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="C366" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D366" s="0" t="s">
         <v>752</v>
-      </c>
-      <c r="C366" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D366" s="0" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D367" s="0" t="s">
         <v>754</v>
-      </c>
-      <c r="C367" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D367" s="0" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D368" s="0" t="s">
         <v>756</v>
-      </c>
-      <c r="C368" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D368" s="0" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D369" s="0" t="s">
         <v>758</v>
-      </c>
-      <c r="C369" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D369" s="0" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D370" s="0" t="s">
         <v>760</v>
-      </c>
-      <c r="C370" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D370" s="0" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D371" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="C371" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D371" s="0" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,120 +7524,120 @@
         <v>763</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>764</v>
+        <v>383</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D373" s="0" t="s">
         <v>765</v>
-      </c>
-      <c r="C373" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D373" s="0" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D374" s="0" t="s">
         <v>767</v>
-      </c>
-      <c r="C374" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D374" s="0" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D375" s="0" t="s">
         <v>769</v>
-      </c>
-      <c r="C375" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D375" s="0" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D376" s="0" t="s">
         <v>771</v>
-      </c>
-      <c r="C376" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D376" s="0" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D377" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="C377" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D377" s="0" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D378" s="0" t="s">
         <v>775</v>
-      </c>
-      <c r="C378" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D378" s="0" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D379" s="0" t="s">
         <v>777</v>
-      </c>
-      <c r="C379" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D379" s="0" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D380" s="0" t="s">
         <v>779</v>
-      </c>
-      <c r="C380" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D380" s="0" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D381" s="0" t="s">
         <v>781</v>
-      </c>
-      <c r="C381" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D381" s="0" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="D382" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="C382" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D382" s="0" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7642,659 +7645,659 @@
         <v>784</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>133</v>
+        <v>750</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D384" s="0" t="s">
         <v>786</v>
-      </c>
-      <c r="C384" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D384" s="0" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D385" s="0" t="s">
         <v>788</v>
-      </c>
-      <c r="C385" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D385" s="0" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D386" s="0" t="s">
         <v>790</v>
-      </c>
-      <c r="C386" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D386" s="0" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D387" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="C387" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D387" s="0" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D388" s="0" t="s">
         <v>794</v>
-      </c>
-      <c r="C388" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D388" s="0" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D389" s="0" t="s">
         <v>796</v>
-      </c>
-      <c r="C389" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D389" s="0" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D390" s="0" t="s">
         <v>798</v>
-      </c>
-      <c r="C390" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D390" s="0" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D391" s="0" t="s">
         <v>800</v>
-      </c>
-      <c r="C391" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D391" s="0" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D392" s="0" t="s">
         <v>802</v>
-      </c>
-      <c r="C392" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D392" s="0" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D393" s="0" t="s">
         <v>804</v>
-      </c>
-      <c r="C393" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D393" s="0" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D394" s="0" t="s">
         <v>806</v>
-      </c>
-      <c r="C394" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D394" s="0" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D395" s="0" t="s">
         <v>808</v>
-      </c>
-      <c r="C395" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D395" s="0" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D396" s="0" t="s">
         <v>810</v>
-      </c>
-      <c r="C396" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D396" s="0" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D397" s="0" t="s">
         <v>812</v>
-      </c>
-      <c r="C397" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D397" s="0" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D398" s="0" t="s">
         <v>814</v>
-      </c>
-      <c r="C398" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D398" s="0" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D399" s="0" t="s">
         <v>816</v>
-      </c>
-      <c r="C399" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D399" s="0" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D400" s="0" t="s">
         <v>818</v>
-      </c>
-      <c r="C400" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D400" s="0" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D401" s="0" t="s">
         <v>820</v>
-      </c>
-      <c r="C401" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D401" s="0" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D402" s="0" t="s">
         <v>822</v>
-      </c>
-      <c r="C402" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D402" s="0" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D403" s="0" t="s">
         <v>824</v>
-      </c>
-      <c r="C403" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D403" s="0" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D404" s="0" t="s">
         <v>826</v>
-      </c>
-      <c r="C404" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D404" s="0" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D405" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="C405" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D405" s="0" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D406" s="0" t="s">
         <v>830</v>
-      </c>
-      <c r="C406" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D406" s="0" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D407" s="0" t="s">
         <v>832</v>
-      </c>
-      <c r="C407" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D407" s="0" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D408" s="0" t="s">
         <v>834</v>
-      </c>
-      <c r="C408" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D408" s="0" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D409" s="0" t="s">
         <v>836</v>
-      </c>
-      <c r="C409" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D409" s="0" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D410" s="0" t="s">
         <v>838</v>
-      </c>
-      <c r="C410" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D410" s="0" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D411" s="0" t="s">
         <v>840</v>
-      </c>
-      <c r="C411" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D411" s="0" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D412" s="0" t="s">
         <v>842</v>
-      </c>
-      <c r="C412" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D412" s="0" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D413" s="0" t="s">
         <v>844</v>
-      </c>
-      <c r="C413" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D413" s="0" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D414" s="0" t="s">
         <v>846</v>
-      </c>
-      <c r="C414" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D414" s="0" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D415" s="0" t="s">
         <v>848</v>
-      </c>
-      <c r="C415" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D415" s="0" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D416" s="0" t="s">
         <v>850</v>
-      </c>
-      <c r="C416" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D416" s="0" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D417" s="0" t="s">
         <v>852</v>
-      </c>
-      <c r="C417" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D417" s="0" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D418" s="0" t="s">
         <v>854</v>
-      </c>
-      <c r="C418" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D418" s="0" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D419" s="0" t="s">
         <v>856</v>
-      </c>
-      <c r="C419" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D419" s="0" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D420" s="0" t="s">
         <v>858</v>
-      </c>
-      <c r="C420" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D420" s="0" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D421" s="0" t="s">
         <v>860</v>
-      </c>
-      <c r="C421" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D421" s="0" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D422" s="0" t="s">
         <v>862</v>
-      </c>
-      <c r="C422" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D422" s="0" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D423" s="0" t="s">
         <v>864</v>
-      </c>
-      <c r="C423" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D423" s="0" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D424" s="0" t="s">
         <v>866</v>
-      </c>
-      <c r="C424" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D424" s="0" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D425" s="0" t="s">
         <v>868</v>
-      </c>
-      <c r="C425" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D425" s="0" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D426" s="0" t="s">
         <v>870</v>
-      </c>
-      <c r="C426" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D426" s="0" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D427" s="0" t="s">
         <v>872</v>
-      </c>
-      <c r="C427" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D427" s="0" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D428" s="0" t="s">
         <v>874</v>
-      </c>
-      <c r="C428" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D428" s="0" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D429" s="0" t="s">
         <v>876</v>
-      </c>
-      <c r="C429" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D429" s="0" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D430" s="0" t="s">
         <v>878</v>
-      </c>
-      <c r="C430" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D430" s="0" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D431" s="0" t="s">
         <v>880</v>
-      </c>
-      <c r="C431" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D431" s="0" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D432" s="0" t="s">
         <v>882</v>
-      </c>
-      <c r="C432" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D432" s="0" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D433" s="0" t="s">
         <v>884</v>
-      </c>
-      <c r="C433" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D433" s="0" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D434" s="0" t="s">
         <v>886</v>
-      </c>
-      <c r="C434" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D434" s="0" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D435" s="0" t="s">
         <v>888</v>
-      </c>
-      <c r="C435" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D435" s="0" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D436" s="0" t="s">
         <v>890</v>
-      </c>
-      <c r="C436" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D436" s="0" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D437" s="0" t="s">
         <v>892</v>
-      </c>
-      <c r="C437" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D437" s="0" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D438" s="0" t="s">
         <v>894</v>
-      </c>
-      <c r="C438" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D438" s="0" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D439" s="0" t="s">
         <v>896</v>
-      </c>
-      <c r="C439" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D439" s="0" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D440" s="0" t="s">
         <v>898</v>
-      </c>
-      <c r="C440" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D440" s="0" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D441" s="0" t="s">
         <v>900</v>
-      </c>
-      <c r="C441" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D441" s="0" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D442" s="0" t="s">
         <v>902</v>
-      </c>
-      <c r="C442" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D442" s="0" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8305,733 +8308,733 @@
         <v>133</v>
       </c>
       <c r="D443" s="0" t="s">
-        <v>904</v>
+        <v>515</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D444" s="0" t="s">
         <v>905</v>
-      </c>
-      <c r="C444" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D444" s="0" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D445" s="0" t="s">
         <v>907</v>
-      </c>
-      <c r="C445" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D445" s="0" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D446" s="0" t="s">
         <v>909</v>
-      </c>
-      <c r="C446" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D446" s="0" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D447" s="0" t="s">
         <v>911</v>
-      </c>
-      <c r="C447" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D447" s="0" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D448" s="0" t="s">
         <v>913</v>
-      </c>
-      <c r="C448" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D448" s="0" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D449" s="0" t="s">
         <v>915</v>
-      </c>
-      <c r="C449" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D449" s="0" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D450" s="0" t="s">
         <v>917</v>
-      </c>
-      <c r="C450" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D450" s="0" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D451" s="0" t="s">
         <v>919</v>
-      </c>
-      <c r="C451" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D451" s="0" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D452" s="0" t="s">
         <v>921</v>
-      </c>
-      <c r="C452" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D452" s="0" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D453" s="0" t="s">
         <v>923</v>
-      </c>
-      <c r="C453" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D453" s="0" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D454" s="0" t="s">
         <v>925</v>
-      </c>
-      <c r="C454" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D454" s="0" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D455" s="0" t="s">
         <v>927</v>
-      </c>
-      <c r="C455" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D455" s="0" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="C456" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D456" s="0" t="s">
         <v>929</v>
-      </c>
-      <c r="C456" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D456" s="0" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D457" s="0" t="s">
         <v>931</v>
-      </c>
-      <c r="C457" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D457" s="0" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="C458" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D458" s="0" t="s">
         <v>933</v>
-      </c>
-      <c r="C458" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D458" s="0" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D459" s="0" t="s">
         <v>935</v>
-      </c>
-      <c r="C459" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D459" s="0" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D460" s="0" t="s">
         <v>937</v>
-      </c>
-      <c r="C460" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D460" s="0" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="C461" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D461" s="0" t="s">
         <v>939</v>
-      </c>
-      <c r="C461" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D461" s="0" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="C462" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D462" s="0" t="s">
         <v>941</v>
-      </c>
-      <c r="C462" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D462" s="0" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D463" s="0" t="s">
         <v>943</v>
-      </c>
-      <c r="C463" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D463" s="0" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D464" s="0" t="s">
         <v>945</v>
-      </c>
-      <c r="C464" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D464" s="0" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D465" s="0" t="s">
         <v>947</v>
-      </c>
-      <c r="C465" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D465" s="0" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D466" s="0" t="s">
         <v>949</v>
-      </c>
-      <c r="C466" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D466" s="0" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D467" s="0" t="s">
         <v>951</v>
-      </c>
-      <c r="C467" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D467" s="0" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D468" s="0" t="s">
         <v>953</v>
-      </c>
-      <c r="C468" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D468" s="0" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D469" s="0" t="s">
         <v>955</v>
-      </c>
-      <c r="C469" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D469" s="0" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D470" s="0" t="s">
         <v>957</v>
-      </c>
-      <c r="C470" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D470" s="0" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D471" s="0" t="s">
         <v>959</v>
-      </c>
-      <c r="C471" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D471" s="0" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D472" s="0" t="s">
         <v>961</v>
-      </c>
-      <c r="C472" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D472" s="0" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D473" s="0" t="s">
         <v>963</v>
-      </c>
-      <c r="C473" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D473" s="0" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D474" s="0" t="s">
         <v>965</v>
-      </c>
-      <c r="C474" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D474" s="0" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D475" s="0" t="s">
         <v>967</v>
-      </c>
-      <c r="C475" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D475" s="0" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D476" s="0" t="s">
         <v>969</v>
-      </c>
-      <c r="C476" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D476" s="0" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D477" s="0" t="s">
         <v>971</v>
-      </c>
-      <c r="C477" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D477" s="0" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D478" s="0" t="s">
         <v>973</v>
-      </c>
-      <c r="C478" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D478" s="0" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D479" s="0" t="s">
         <v>975</v>
-      </c>
-      <c r="C479" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D479" s="0" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D480" s="0" t="s">
         <v>977</v>
-      </c>
-      <c r="C480" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D480" s="0" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D481" s="0" t="s">
         <v>979</v>
-      </c>
-      <c r="C481" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D481" s="0" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D482" s="0" t="s">
         <v>981</v>
-      </c>
-      <c r="C482" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D482" s="0" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D483" s="0" t="s">
         <v>983</v>
-      </c>
-      <c r="C483" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D483" s="0" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D484" s="0" t="s">
         <v>985</v>
-      </c>
-      <c r="C484" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D484" s="0" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D485" s="0" t="s">
         <v>987</v>
-      </c>
-      <c r="C485" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D485" s="0" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D486" s="0" t="s">
         <v>989</v>
-      </c>
-      <c r="C486" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D486" s="0" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D487" s="0" t="s">
         <v>991</v>
-      </c>
-      <c r="C487" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D487" s="0" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D488" s="0" t="s">
         <v>993</v>
-      </c>
-      <c r="C488" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D488" s="0" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D489" s="0" t="s">
         <v>995</v>
-      </c>
-      <c r="C489" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D489" s="0" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D490" s="0" t="s">
         <v>997</v>
-      </c>
-      <c r="C490" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D490" s="0" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="C491" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D491" s="0" t="s">
         <v>999</v>
-      </c>
-      <c r="C491" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D491" s="0" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C492" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D492" s="0" t="s">
         <v>1001</v>
-      </c>
-      <c r="C492" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D492" s="0" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D493" s="0" t="s">
         <v>1003</v>
-      </c>
-      <c r="C493" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D493" s="0" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D494" s="0" t="s">
         <v>1005</v>
-      </c>
-      <c r="C494" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D494" s="0" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C495" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D495" s="0" t="s">
         <v>1007</v>
-      </c>
-      <c r="C495" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D495" s="0" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D496" s="0" t="s">
         <v>1009</v>
-      </c>
-      <c r="C496" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D496" s="0" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C497" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D497" s="0" t="s">
         <v>1011</v>
-      </c>
-      <c r="C497" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D497" s="0" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C498" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D498" s="0" t="s">
         <v>1013</v>
-      </c>
-      <c r="C498" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D498" s="0" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D499" s="0" t="s">
         <v>1015</v>
-      </c>
-      <c r="C499" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D499" s="0" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C500" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D500" s="0" t="s">
         <v>1017</v>
-      </c>
-      <c r="C500" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D500" s="0" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D501" s="0" t="s">
         <v>1019</v>
-      </c>
-      <c r="C501" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D501" s="0" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C502" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D502" s="0" t="s">
         <v>1021</v>
-      </c>
-      <c r="C502" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D502" s="0" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C503" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D503" s="0" t="s">
         <v>1023</v>
-      </c>
-      <c r="C503" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D503" s="0" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D504" s="0" t="s">
         <v>1025</v>
-      </c>
-      <c r="C504" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D504" s="0" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D505" s="0" t="s">
         <v>1027</v>
-      </c>
-      <c r="C505" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D505" s="0" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C506" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D506" s="0" t="s">
         <v>1029</v>
-      </c>
-      <c r="C506" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D506" s="0" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D507" s="0" t="s">
         <v>1031</v>
-      </c>
-      <c r="C507" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D507" s="0" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D508" s="0" t="s">
         <v>1033</v>
-      </c>
-      <c r="C508" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D508" s="0" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D509" s="0" t="s">
         <v>1035</v>
-      </c>
-      <c r="C509" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D509" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9042,326 +9045,337 @@
         <v>133</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>1037</v>
+        <v>45</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D511" s="0" t="s">
         <v>1038</v>
-      </c>
-      <c r="C511" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D511" s="0" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D512" s="0" t="s">
         <v>1040</v>
-      </c>
-      <c r="C512" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D512" s="0" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C513" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D513" s="0" t="s">
         <v>1042</v>
-      </c>
-      <c r="C513" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D513" s="0" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C514" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D514" s="0" t="s">
         <v>1044</v>
-      </c>
-      <c r="C514" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D514" s="0" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D515" s="0" t="s">
         <v>1046</v>
-      </c>
-      <c r="C515" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D515" s="0" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D516" s="0" t="s">
         <v>1048</v>
-      </c>
-      <c r="C516" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D516" s="0" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D517" s="0" t="s">
         <v>1050</v>
-      </c>
-      <c r="C517" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D517" s="0" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D518" s="0" t="s">
         <v>1052</v>
-      </c>
-      <c r="C518" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D518" s="0" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D519" s="0" t="s">
         <v>1054</v>
-      </c>
-      <c r="C519" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D519" s="0" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C520" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D520" s="0" t="s">
         <v>1056</v>
-      </c>
-      <c r="C520" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D520" s="0" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D521" s="0" t="s">
         <v>1058</v>
-      </c>
-      <c r="C521" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D521" s="0" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C522" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D522" s="0" t="s">
         <v>1060</v>
-      </c>
-      <c r="C522" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D522" s="0" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D523" s="0" t="s">
         <v>1062</v>
-      </c>
-      <c r="C523" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D523" s="0" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D524" s="0" t="s">
         <v>1064</v>
-      </c>
-      <c r="C524" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D524" s="0" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C525" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D525" s="0" t="s">
         <v>1066</v>
-      </c>
-      <c r="C525" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D525" s="0" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D526" s="0" t="s">
         <v>1068</v>
-      </c>
-      <c r="C526" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D526" s="0" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D527" s="0" t="s">
         <v>1070</v>
-      </c>
-      <c r="C527" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D527" s="0" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C528" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D528" s="0" t="s">
         <v>1072</v>
-      </c>
-      <c r="C528" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D528" s="0" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C529" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D529" s="0" t="s">
         <v>1074</v>
-      </c>
-      <c r="C529" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D529" s="0" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C530" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D530" s="0" t="s">
         <v>1076</v>
-      </c>
-      <c r="C530" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D530" s="0" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D531" s="0" t="s">
         <v>1078</v>
-      </c>
-      <c r="C531" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D531" s="0" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D532" s="0" t="s">
         <v>1080</v>
-      </c>
-      <c r="C532" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D532" s="0" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C533" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D533" s="0" t="s">
         <v>1082</v>
-      </c>
-      <c r="C533" s="0" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D533" s="0" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D534" s="0" t="s">
         <v>1085</v>
-      </c>
-      <c r="C534" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D534" s="0" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>74</v>
       </c>
       <c r="D535" s="0" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D536" s="0" t="s">
         <v>1089</v>
-      </c>
-      <c r="C536" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D536" s="0" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C537" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D537" s="0" t="s">
         <v>1091</v>
-      </c>
-      <c r="C537" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D537" s="0" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C538" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D538" s="0" t="s">
         <v>1093</v>
-      </c>
-      <c r="C538" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D538" s="0" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C539" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D539" s="0" t="s">
         <v>1095</v>
       </c>
-      <c r="C539" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D539" s="0" t="s">
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="0" t="s">
         <v>1096</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D540" s="0" t="s">
+        <v>1097</v>
       </c>
     </row>
   </sheetData>

--- a/AltController/Translation/Strings_for_translation.xlsx
+++ b/AltController/Translation/Strings_for_translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="1306">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -130,6 +130,12 @@
     <t xml:space="preserve">Edit action - Move pointer</t>
   </si>
   <si>
+    <t xml:space="preserve">Action_ActionLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Action_ActionTypeLabel</t>
   </si>
   <si>
@@ -709,12 +715,6 @@
     <t xml:space="preserve">Error while changing the action type</t>
   </si>
   <si>
-    <t xml:space="preserve">E_ChangeProfileUnsavedChanges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unable to change profile because the current profile has unsaved changes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">E_CommandEmpty</t>
   </si>
   <si>
@@ -877,112 +877,130 @@
     <t xml:space="preserve">Invalid regular expression.</t>
   </si>
   <si>
-    <t xml:space="preserve">E_LoadProfileAction</t>
+    <t xml:space="preserve">E_MAIN001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while initialising folders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while initialising application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while positioning window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while creating new profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while opening profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while saving profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error during Save As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while opening the profile editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while opening the screen region editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while opening the profile summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while loading profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while opening all custom windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error during open custom window command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while opening custom window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while opening the Log information window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while loading recent profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error while running command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN018</t>
   </si>
   <si>
     <t xml:space="preserve">Error performing load profile action.</t>
   </si>
   <si>
-    <t xml:space="preserve">E_MAIN001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while initialising folders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while initialising application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while positioning window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while creating new profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while opening profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while saving profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error during Save As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while opening the profile editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while opening the screen region editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while opening the profile summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while loading profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while opening all custom windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error during open custom window command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while opening custom window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while opening the Log information window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while loading recent profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_MAIN017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error while running command</t>
+    <t xml:space="preserve">E_MAIN019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot change profile when the profile editor is open.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot change profile when there are unsaved changes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_MAIN021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error running command</t>
   </si>
   <si>
     <t xml:space="preserve">E_PR001</t>
@@ -1273,12 +1291,6 @@
     <t xml:space="preserve">Error: selection of multiple regions is not allowed</t>
   </si>
   <si>
-    <t xml:space="preserve">E_RunCommand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error running command</t>
-  </si>
-  <si>
     <t xml:space="preserve">E_UPGR001</t>
   </si>
   <si>
@@ -2029,7 +2041,7 @@
     <t xml:space="preserve">Options_SecurityTab</t>
   </si>
   <si>
-    <t xml:space="preserve">Security</t>
+    <t xml:space="preserve">Sec_urity</t>
   </si>
   <si>
     <t xml:space="preserve">Options_ShiftCheck</t>
@@ -2995,12 +3007,36 @@
     <t xml:space="preserve">Executable files</t>
   </si>
   <si>
+    <t xml:space="preserve">String_Hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide</t>
+  </si>
+  <si>
     <t xml:space="preserve">String_Hide_pointer</t>
   </si>
   <si>
     <t xml:space="preserve">Hide pointer</t>
   </si>
   <si>
+    <t xml:space="preserve">String_HideAllCustomWindows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide all custom windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_HideCustomWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide custom window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_HideCustomWindowX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide custom window '{0}'</t>
+  </si>
+  <si>
     <t xml:space="preserve">String_Hold_down_key_for_X</t>
   </si>
   <si>
@@ -3139,6 +3175,24 @@
     <t xml:space="preserve">longer presses towards</t>
   </si>
   <si>
+    <t xml:space="preserve">String_Maximise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_MaximiseOrMinimiseWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximise / minimise window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_MaximiseOrRestore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximise / restore</t>
+  </si>
+  <si>
     <t xml:space="preserve">String_MaximiseOrRestoreWindow</t>
   </si>
   <si>
@@ -3163,10 +3217,10 @@
     <t xml:space="preserve">Middle</t>
   </si>
   <si>
-    <t xml:space="preserve">String_minimise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimise</t>
+    <t xml:space="preserve">String_Minimise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise</t>
   </si>
   <si>
     <t xml:space="preserve">String_MinimiseWindow</t>
@@ -3508,10 +3562,10 @@
     <t xml:space="preserve">Reset all options?</t>
   </si>
   <si>
-    <t xml:space="preserve">String_restore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restore</t>
+    <t xml:space="preserve">String_Restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore</t>
   </si>
   <si>
     <t xml:space="preserve">String_Restore_pointer</t>
@@ -3593,6 +3647,54 @@
   </si>
   <si>
     <t xml:space="preserve">sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_Show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_ShowAllCustomWindows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show all custom windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_ShowCustomWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show custom window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_ShowCustomWindowX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show custom window '{0}'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_ShowOrHide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show / hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_ShowOrHideAllCustomWindows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show / hide all custom windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_ShowOrHideCustomWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show / hide custom window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String_ShowOrHideCustomWindowX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show / hide custom window '{0}'</t>
   </si>
   <si>
     <t xml:space="preserve">String_Situation_Changed</t>
@@ -4053,10 +4155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D628"/>
+  <dimension ref="A1:D645"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A587" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C586" activeCellId="0" sqref="C586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4217,30 +4319,27 @@
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4251,29 +4350,29 @@
         <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4284,18 +4383,18 @@
         <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,40 +4405,40 @@
         <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,29 +4449,29 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,29 +4482,29 @@
         <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,7 +4515,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4427,18 +4526,18 @@
         <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,7 +4559,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4471,18 +4570,18 @@
         <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,7 +4592,7 @@
         <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4504,7 +4603,7 @@
         <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,7 +4625,7 @@
         <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4537,7 +4636,7 @@
         <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,7 +4647,7 @@
         <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,7 +4658,7 @@
         <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,7 +4669,7 @@
         <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,7 +4680,7 @@
         <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,7 +4691,7 @@
         <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,7 +4702,7 @@
         <v>121</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,7 +4713,7 @@
         <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,7 +4724,7 @@
         <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,7 +4735,7 @@
         <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +4746,7 @@
         <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +4757,7 @@
         <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,7 +4768,7 @@
         <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4779,7 @@
         <v>135</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4691,18 +4790,18 @@
         <v>137</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,7 +4812,7 @@
         <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,21 +4820,21 @@
         <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,7 +4845,7 @@
         <v>147</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,18 +4867,18 @@
         <v>151</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,7 +4889,7 @@
         <v>156</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,7 +4900,7 @@
         <v>158</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,6 +4921,9 @@
       <c r="B73" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
@@ -4838,19 +4940,16 @@
       <c r="B75" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,7 +4960,7 @@
         <v>171</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,7 +4971,7 @@
         <v>173</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,7 +4982,7 @@
         <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,7 +4993,7 @@
         <v>177</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +5004,7 @@
         <v>179</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4916,7 +5015,7 @@
         <v>181</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,7 +5026,7 @@
         <v>183</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,7 +5037,7 @@
         <v>185</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4949,7 +5048,7 @@
         <v>187</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +5059,7 @@
         <v>189</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,7 +5070,7 @@
         <v>191</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,7 +5081,7 @@
         <v>193</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,7 +5092,7 @@
         <v>195</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5004,7 +5103,7 @@
         <v>197</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5015,7 +5114,7 @@
         <v>199</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5026,7 +5125,7 @@
         <v>201</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,7 +5136,7 @@
         <v>203</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +5147,7 @@
         <v>205</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,7 +5158,7 @@
         <v>207</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,7 +5169,7 @@
         <v>209</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,7 +5180,7 @@
         <v>211</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5191,7 @@
         <v>213</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,7 +5202,7 @@
         <v>215</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,7 +5213,7 @@
         <v>217</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,32 +5221,32 @@
         <v>218</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,32 +5254,32 @@
         <v>222</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5188,18 +5287,21 @@
         <v>226</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,30 +6095,24 @@
       <c r="B207" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>427</v>
-      </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6027,7 +6123,7 @@
         <v>433</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6038,7 +6134,7 @@
         <v>435</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6046,21 +6142,21 @@
         <v>436</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,7 +6167,7 @@
         <v>431</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6082,18 +6178,18 @@
         <v>442</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,7 +6200,7 @@
         <v>446</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6115,29 +6211,29 @@
         <v>448</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="C219" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6148,7 +6244,7 @@
         <v>455</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6159,7 +6255,7 @@
         <v>457</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6170,7 +6266,7 @@
         <v>459</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,7 +6277,7 @@
         <v>461</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,7 +6288,7 @@
         <v>463</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6203,7 +6299,7 @@
         <v>465</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,7 +6310,7 @@
         <v>467</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6225,7 +6321,7 @@
         <v>469</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,6 +6331,9 @@
       <c r="B229" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="C229" s="1" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
@@ -6243,6 +6342,9 @@
       <c r="B230" s="1" t="s">
         <v>473</v>
       </c>
+      <c r="C230" s="1" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
@@ -6297,23 +6399,23 @@
         <v>486</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>164</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>490</v>
+        <v>166</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6627,26 +6729,23 @@
       <c r="B278" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>569</v>
-      </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>573</v>
       </c>
     </row>
@@ -6658,51 +6757,48 @@
         <v>575</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,7 +6809,7 @@
         <v>588</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6724,51 +6820,51 @@
         <v>590</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="C288" s="1" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="C290" s="1" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6779,7 +6875,7 @@
         <v>602</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6790,7 +6886,7 @@
         <v>604</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6801,7 +6897,7 @@
         <v>606</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6812,7 +6908,7 @@
         <v>608</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6823,7 +6919,7 @@
         <v>610</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6834,7 +6930,7 @@
         <v>612</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6845,7 +6941,7 @@
         <v>614</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6856,29 +6952,29 @@
         <v>616</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="C300" s="1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6889,7 +6985,7 @@
         <v>623</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,7 +6996,7 @@
         <v>625</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6911,7 +7007,7 @@
         <v>627</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6922,7 +7018,7 @@
         <v>629</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6933,7 +7029,7 @@
         <v>631</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6944,7 +7040,7 @@
         <v>633</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6955,7 +7051,7 @@
         <v>635</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6966,7 +7062,7 @@
         <v>637</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6977,7 +7073,7 @@
         <v>639</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6988,7 +7084,7 @@
         <v>641</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6999,7 +7095,7 @@
         <v>643</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7010,7 +7106,7 @@
         <v>645</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7021,7 +7117,7 @@
         <v>647</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7032,7 +7128,7 @@
         <v>649</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7043,7 +7139,7 @@
         <v>651</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7054,7 +7150,7 @@
         <v>653</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,29 +7161,29 @@
         <v>655</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>656</v>
+        <v>600</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>658</v>
-      </c>
       <c r="C319" s="1" t="s">
-        <v>656</v>
+        <v>600</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7098,29 +7194,29 @@
         <v>662</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>665</v>
-      </c>
       <c r="C322" s="1" t="s">
-        <v>663</v>
+        <v>586</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="C323" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7131,7 +7227,7 @@
         <v>669</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7142,7 +7238,7 @@
         <v>671</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>579</v>
+        <v>667</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7153,7 +7249,7 @@
         <v>673</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>582</v>
+        <v>667</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7164,7 +7260,7 @@
         <v>675</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,7 +7271,7 @@
         <v>677</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>656</v>
+        <v>586</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7186,7 +7282,7 @@
         <v>679</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7197,7 +7293,7 @@
         <v>681</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>576</v>
+        <v>660</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7208,7 +7304,7 @@
         <v>683</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>576</v>
+        <v>621</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7219,7 +7315,7 @@
         <v>685</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7230,7 +7326,7 @@
         <v>687</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>687</v>
+        <v>580</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7241,29 +7337,29 @@
         <v>689</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>690</v>
+        <v>583</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>692</v>
-      </c>
       <c r="C335" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7274,7 +7370,7 @@
         <v>696</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,7 +7381,7 @@
         <v>698</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7296,7 +7392,7 @@
         <v>700</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7307,7 +7403,7 @@
         <v>702</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7318,7 +7414,7 @@
         <v>704</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,7 +7425,7 @@
         <v>706</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7340,7 +7436,7 @@
         <v>708</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,7 +7447,7 @@
         <v>710</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7362,7 +7458,7 @@
         <v>712</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,7 +7469,7 @@
         <v>714</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,7 +7480,7 @@
         <v>716</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7395,7 +7491,7 @@
         <v>718</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,7 +7502,7 @@
         <v>720</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7417,7 +7513,7 @@
         <v>722</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7428,7 +7524,7 @@
         <v>724</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7439,7 +7535,7 @@
         <v>726</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7450,7 +7546,7 @@
         <v>728</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7461,7 +7557,7 @@
         <v>730</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7472,7 +7568,7 @@
         <v>732</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7483,7 +7579,7 @@
         <v>734</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7494,7 +7590,7 @@
         <v>736</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7505,7 +7601,7 @@
         <v>738</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7516,7 +7612,7 @@
         <v>740</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7524,21 +7620,21 @@
         <v>741</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>690</v>
+        <v>742</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>744</v>
+        <v>694</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7546,21 +7642,21 @@
         <v>745</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>746</v>
+        <v>694</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>744</v>
+        <v>694</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="C363" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,7 +7667,7 @@
         <v>750</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,10 +7675,10 @@
         <v>751</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>438</v>
+        <v>752</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7593,7 +7689,7 @@
         <v>754</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7601,43 +7697,43 @@
         <v>755</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>173</v>
+        <v>442</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>758</v>
+        <v>175</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>760</v>
+        <v>171</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7648,7 +7744,7 @@
         <v>762</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7659,7 +7755,7 @@
         <v>764</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7670,7 +7766,7 @@
         <v>766</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7678,32 +7774,32 @@
         <v>767</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>431</v>
+        <v>768</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>771</v>
+        <v>435</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7714,7 +7810,7 @@
         <v>773</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7725,7 +7821,7 @@
         <v>775</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7736,7 +7832,7 @@
         <v>777</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7747,7 +7843,7 @@
         <v>779</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7758,7 +7854,7 @@
         <v>781</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,7 +7865,7 @@
         <v>783</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7780,7 +7876,7 @@
         <v>785</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,7 +7887,7 @@
         <v>787</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7802,7 +7898,7 @@
         <v>789</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7813,7 +7909,7 @@
         <v>791</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7824,7 +7920,7 @@
         <v>793</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7835,7 +7931,7 @@
         <v>795</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7846,7 +7942,7 @@
         <v>797</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7857,7 +7953,7 @@
         <v>799</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,7 +7964,7 @@
         <v>801</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7879,7 +7975,7 @@
         <v>803</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7890,7 +7986,7 @@
         <v>805</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7901,7 +7997,7 @@
         <v>807</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7912,7 +8008,7 @@
         <v>809</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7923,7 +8019,7 @@
         <v>811</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7931,54 +8027,54 @@
         <v>812</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>752</v>
+        <v>813</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>197</v>
+        <v>756</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>426</v>
+        <v>199</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>819</v>
+        <v>756</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,7 +8085,7 @@
         <v>821</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>819</v>
+        <v>756</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7997,10 +8093,10 @@
         <v>822</v>
       </c>
       <c r="B403" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8011,7 +8107,7 @@
         <v>825</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8022,7 +8118,7 @@
         <v>827</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8033,7 +8129,7 @@
         <v>829</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8044,7 +8140,7 @@
         <v>831</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8052,32 +8148,32 @@
         <v>832</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>431</v>
+        <v>833</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>836</v>
+        <v>435</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8088,7 +8184,7 @@
         <v>838</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8099,7 +8195,7 @@
         <v>840</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8110,7 +8206,7 @@
         <v>842</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8121,7 +8217,7 @@
         <v>844</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8132,7 +8228,7 @@
         <v>846</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8143,7 +8239,7 @@
         <v>848</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8154,7 +8250,7 @@
         <v>850</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8165,7 +8261,7 @@
         <v>852</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8173,21 +8269,21 @@
         <v>853</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>819</v>
+        <v>854</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8195,21 +8291,21 @@
         <v>857</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B422" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="C422" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8220,7 +8316,7 @@
         <v>862</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8231,7 +8327,7 @@
         <v>864</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8242,7 +8338,7 @@
         <v>866</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8253,7 +8349,7 @@
         <v>868</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8264,7 +8360,7 @@
         <v>870</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8275,7 +8371,7 @@
         <v>872</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8286,7 +8382,7 @@
         <v>874</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8297,7 +8393,7 @@
         <v>876</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8307,6 +8403,9 @@
       <c r="B431" s="1" t="s">
         <v>878</v>
       </c>
+      <c r="C431" s="1" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
@@ -8315,6 +8414,9 @@
       <c r="B432" s="1" t="s">
         <v>880</v>
       </c>
+      <c r="C432" s="1" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
@@ -8633,17 +8735,14 @@
         <v>959</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>834</v>
+        <v>960</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="C473" s="1" t="s">
         <v>962</v>
       </c>
     </row>
@@ -8652,14 +8751,17 @@
         <v>963</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>964</v>
+        <v>838</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B475" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="C475" s="1" t="s">
         <v>966</v>
       </c>
     </row>
@@ -9140,79 +9242,79 @@
         <v>1085</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>958</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1103</v>
+        <v>962</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9478,79 +9580,79 @@
       <c r="B577" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="C577" s="1" t="s">
-        <v>1170</v>
-      </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B578" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B579" s="1" t="s">
         <v>1173</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B580" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="B580" s="1" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B581" s="1" t="s">
         <v>1177</v>
-      </c>
-      <c r="B581" s="1" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B582" s="1" t="s">
         <v>1179</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B583" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B584" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="B584" s="1" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B585" s="1" t="s">
         <v>1185</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B586" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B586" s="1" t="s">
+      <c r="C586" s="1" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -9655,143 +9757,143 @@
         <v>1213</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>43</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1247</v>
+        <v>45</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9888,6 +9990,142 @@
       </c>
       <c r="B628" s="1" t="s">
         <v>1271</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>1305</v>
       </c>
     </row>
   </sheetData>

--- a/AltController/Translation/Strings_for_translation.xlsx
+++ b/AltController/Translation/Strings_for_translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1302">
   <si>
     <t xml:space="preserve">String_ID</t>
   </si>
@@ -2638,7 +2638,7 @@
     <t xml:space="preserve">StartProgram_ProgramNameLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Program name:</t>
+    <t xml:space="preserve">Executable file:</t>
   </si>
   <si>
     <t xml:space="preserve">StartProgram_TestAction</t>
@@ -2651,18 +2651,6 @@
   </si>
   <si>
     <t xml:space="preserve">Check the command that will be run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartProgram_TryBothFolders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Try both folders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartProgram_TryBothFoldersToolTip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a 'Program Files' folder is specified but the program isn't found, look in 'Program Files (x86)' instead, and vice versa</t>
   </si>
   <si>
     <t xml:space="preserve">String_Actions</t>
@@ -4155,10 +4143,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D645"/>
+  <dimension ref="A1:D643"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A587" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C586" activeCellId="0" sqref="C586"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A419" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B429" activeCellId="0" sqref="B429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8403,9 +8391,6 @@
       <c r="B431" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="C431" s="1" t="s">
-        <v>860</v>
-      </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
@@ -8414,9 +8399,6 @@
       <c r="B432" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C432" s="1" t="s">
-        <v>860</v>
-      </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
@@ -8735,14 +8717,17 @@
         <v>959</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>960</v>
+        <v>838</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B473" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="C473" s="1" t="s">
         <v>962</v>
       </c>
     </row>
@@ -8751,17 +8736,14 @@
         <v>963</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>838</v>
+        <v>964</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="C475" s="1" t="s">
         <v>966</v>
       </c>
     </row>
@@ -9298,23 +9280,23 @@
         <v>1099</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1100</v>
+        <v>958</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B543" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B544" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9636,23 +9618,23 @@
       <c r="B584" s="1" t="s">
         <v>1183</v>
       </c>
+      <c r="C584" s="1" t="s">
+        <v>1184</v>
+      </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C586" s="1" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -9877,23 +9859,23 @@
         <v>1243</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1244</v>
+        <v>45</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B615" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="B615" s="1" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B616" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="B616" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10110,22 +10092,6 @@
       </c>
       <c r="B643" s="1" t="s">
         <v>1301</v>
-      </c>
-    </row>
-    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B645" s="1" t="s">
-        <v>1305</v>
       </c>
     </row>
   </sheetData>
